--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57526.07024801054</v>
+        <v>11364513.28618889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57526.07024801054</v>
+        <v>11364513.28618889</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2112.483571989761</v>
+        <v>332851.962911441</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2112.483571989761</v>
+        <v>332851.962911441</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266545456.675298</v>
+        <v>52572324.11103711</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11251.1461038066</v>
+        <v>1266457.39069235</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21051.97234812196</v>
+        <v>2305443.44896674</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30852.29354817861</v>
+        <v>3344429.507241132</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40681.48805026446</v>
+        <v>4383422.977700151</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50510.52346875781</v>
+        <v>5422409.035974542</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60339.55888725115</v>
+        <v>6461395.094248932</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70168.38255710372</v>
+        <v>7500381.152523318</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79997.50713291949</v>
+        <v>8539367.210797707</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89845.88307616925</v>
+        <v>9569376.413188919</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99690.21328810444</v>
+        <v>10609974.26889197</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109519.2487065977</v>
+        <v>11648960.32716636</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119348.2841250911</v>
+        <v>12687946.38544076</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129177.3195435844</v>
+        <v>13726932.44371516</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139114.4551420248</v>
+        <v>14708745.84352951</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149230.1202321905</v>
+        <v>15690269.35627248</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>380</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
